--- a/documents/Acceptance Criteria.xlsx
+++ b/documents/Acceptance Criteria.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6D77E6-9181-A542-8A82-61278CCA59CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C715C7C-75B0-D647-AD31-F5925F2FDBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{F9CDC593-2F19-A54B-AEAD-F02075CEF372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$22</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -172,10 +175,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,20 +502,20 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="134" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -516,11 +525,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -530,35 +539,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
@@ -568,35 +577,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
@@ -606,41 +615,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
@@ -650,31 +659,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/documents/Acceptance Criteria.xlsx
+++ b/documents/Acceptance Criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C715C7C-75B0-D647-AD31-F5925F2FDBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81036A-4925-1D49-88B5-EC10070A8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{F9CDC593-2F19-A54B-AEAD-F02075CEF372}"/>
   </bookViews>
@@ -502,13 +502,13 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" customWidth="1"/>
+    <col min="2" max="2" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/documents/Acceptance Criteria.xlsx
+++ b/documents/Acceptance Criteria.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81036A-4925-1D49-88B5-EC10070A8DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DF9B-BF29-354B-90A4-DF3D6D456404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{F9CDC593-2F19-A54B-AEAD-F02075CEF372}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>User Story ID</t>
   </si>
@@ -126,6 +126,51 @@
   </si>
   <si>
     <t>Then I want my data I send into the website to be deidentified and unlabeled with my information.</t>
+  </si>
+  <si>
+    <t>CAP-44</t>
+  </si>
+  <si>
+    <t>As a user I want to take a photo and send it without having the photo save to my phone first</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Then I want this page to be seamless and integrated with my phone/device</t>
+  </si>
+  <si>
+    <t>CAP-40</t>
+  </si>
+  <si>
+    <t>As a user I want this to have reliable and provide information about the data</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Scenario: Native-like use application</t>
+  </si>
+  <si>
+    <t>As a user I want to have instant feedback as well as detailed feedback</t>
+  </si>
+  <si>
+    <t>CAP-39</t>
+  </si>
+  <si>
+    <t>Then I want this page to display feedback so that I can understand my result</t>
+  </si>
+  <si>
+    <t>CAP-38</t>
+  </si>
+  <si>
+    <t>As a user I want to chat with someone or find out more information regarding the website</t>
+  </si>
+  <si>
+    <t>Then I want this page to have someone available to "speak" with</t>
+  </si>
+  <si>
+    <t>Then I want this page tell me what my results mean</t>
   </si>
 </sst>
 </file>
@@ -499,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E49277-683F-2045-B002-83C29298E6B5}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -645,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -681,6 +726,132 @@
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Acceptance Criteria.xlsx
+++ b/documents/Acceptance Criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffertyleung/Desktop/cs691/2023S-Leung/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DF9B-BF29-354B-90A4-DF3D6D456404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69771840-B0EE-9E4E-80E9-A2D229B39E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16520" xr2:uid="{F9CDC593-2F19-A54B-AEAD-F02075CEF372}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>User Story ID</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Then I want this page tell me what my results mean</t>
+  </si>
+  <si>
+    <t>Scenario: User sends photo</t>
+  </si>
+  <si>
+    <t>Scenario: User has questions</t>
   </si>
 </sst>
 </file>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E49277-683F-2045-B002-83C29298E6B5}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,7 +735,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -743,27 +749,31 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
@@ -777,27 +787,31 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -811,48 +825,69 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
